--- a/MDO/client-assets/assets/common/user-bulk-upload-v2.xlsx
+++ b/MDO/client-assets/assets/common/user-bulk-upload-v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\likith\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7322110-745C-42CE-A495-62C67EB2696C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E895A19-6FBC-4CF1-8904-D1EDE83752FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="9072" xr2:uid="{E3CE2DA4-EDBC-4AA8-AA35-357CD8BABDA7}"/>
+    <workbookView xWindow="5760" yWindow="3168" windowWidth="17280" windowHeight="9072" xr2:uid="{E3CE2DA4-EDBC-4AA8-AA35-357CD8BABDA7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -66,6 +66,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -92,11 +100,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -415,28 +425,28 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.5546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="12.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="36.33203125" style="2" customWidth="1"/>
     <col min="4" max="4" width="13.6640625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -445,5 +455,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>